--- a/IBMi_SDK_Documentation/TXJUO Data Structure.xlsx
+++ b/IBMi_SDK_Documentation/TXJUO Data Structure.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\ASIA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="9555" windowHeight="8760"/>
   </bookViews>
@@ -113,9 +118,6 @@
     <t xml:space="preserve">O_StateAssNo </t>
   </si>
   <si>
-    <t>dim(100,10)</t>
-  </si>
-  <si>
     <t>Country name</t>
   </si>
   <si>
@@ -174,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">StateAssignedNo indicates the identifier given to the location by the state. </t>
+  </si>
+  <si>
+    <t>dim(999,10)</t>
   </si>
 </sst>
 </file>
@@ -260,6 +265,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -307,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,7 +563,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -606,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>10</v>
@@ -629,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>10</v>
@@ -652,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
@@ -675,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>10</v>
@@ -698,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>10</v>
@@ -721,10 +729,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>10</v>
@@ -744,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>12</v>
@@ -767,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>
@@ -790,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>10</v>
@@ -813,10 +821,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>10</v>
@@ -836,10 +844,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>10</v>
@@ -859,10 +867,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>10</v>
@@ -882,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>10</v>
@@ -905,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>10</v>
@@ -928,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>10</v>
@@ -951,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>10</v>
@@ -974,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>10</v>
@@ -997,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>10</v>
